--- a/Documents/スロー数字手裏剣設計書.xlsx
+++ b/Documents/スロー数字手裏剣設計書.xlsx
@@ -5,30 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/ThrowSujiShuriken/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/SujiShuriken/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42488D0-D994-7048-8523-1A3DCC2B91F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBA17B-72EB-B844-B3BB-18914D37E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="500" windowWidth="38400" windowHeight="20480" firstSheet="9" activeTab="15" xr2:uid="{E0FF6593-6BC5-404C-8048-8B8F9B07B661}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" activeTab="2" xr2:uid="{E0FF6593-6BC5-404C-8048-8B8F9B07B661}"/>
   </bookViews>
   <sheets>
     <sheet name="設計のやり方" sheetId="2" r:id="rId1"/>
-    <sheet name="クラス設計" sheetId="3" r:id="rId2"/>
-    <sheet name="実装(自分手裏剣投げる・配置変更)" sheetId="4" r:id="rId3"/>
-    <sheet name="実装(自分手裏剣投げる・配置変更)PAD" sheetId="13" r:id="rId4"/>
-    <sheet name="ノート" sheetId="15" r:id="rId5"/>
+    <sheet name="ノート" sheetId="15" r:id="rId2"/>
+    <sheet name="実装(自分手裏剣投げる・配置変更) (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="実装(手裏剣にダメージを与える)PAD" sheetId="16" r:id="rId4"/>
+    <sheet name="衝突判定整理" sheetId="18" r:id="rId5"/>
     <sheet name="方眼紙" sheetId="14" r:id="rId6"/>
-    <sheet name="実装(自分手裏剣投げる・配置変更) (2)" sheetId="5" r:id="rId7"/>
-    <sheet name="手裏剣が飛んでいく角度について" sheetId="6" r:id="rId8"/>
-    <sheet name="実装(自分手裏剣を複製)" sheetId="7" r:id="rId9"/>
-    <sheet name="バグ修正ノート" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId11"/>
-    <sheet name="バグ修正" sheetId="8" r:id="rId12"/>
-    <sheet name="手裏剣が思った方向に飛んでいかないバグ修正" sheetId="9" r:id="rId13"/>
-    <sheet name="レイヤーを変更して最初に衝突しないように作る。" sheetId="10" r:id="rId14"/>
-    <sheet name="実装(手裏剣にダメージを与える)PAD" sheetId="16" r:id="rId15"/>
-    <sheet name="衝突判定整理" sheetId="18" r:id="rId16"/>
+    <sheet name="方眼紙 (2)" sheetId="19" r:id="rId7"/>
+    <sheet name="PAD基本図形" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
   <si>
     <t>④UIを更新するための監督スクリプト</t>
     <phoneticPr fontId="2"/>
@@ -64,26 +56,6 @@
   </si>
   <si>
     <t>ポイント：設計で大切なのは、「どんなスクリプトを作るのか」「どういう手順で作るのか」の全体が見渡せること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PlantUMLで作成予定</t>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>でここに貼り付ける。</t>
-    <rPh sb="4" eb="5">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -519,343 +491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>現状：スワイプ終了時の方向が少しでも右になっただけで右斜め前に手裏剣が飛んでいってしまう。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ナナ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解決策：</t>
-    <rPh sb="0" eb="3">
-      <t>カイケツサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右斜め前も前スワイプ判定とする</t>
-    <rPh sb="0" eb="2">
-      <t>ミギナナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>数字テキストで</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ドラッグ中のtransform.positionも保持して、補正で飛ばす方向を決める。</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1か所ずつ調整して作る。</t>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分手裏剣を複製する</t>
-    <rPh sb="6" eb="8">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メソッド名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OnInstantiateShuriken1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分手裏剣が投げられたすぐあとに投げられる前の座標に自分手裏剣を生成するShurikenThrownのイベントハンドラ</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>現象</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3回目のスワイプ時に手裏剣が3つ複製された。</t>
-    <rPh sb="1" eb="3">
-      <t>カイメ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→　本当は1つだけ複製されることを期待した。</t>
-    <rPh sb="2" eb="4">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キタイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解決：OnMouseExitとOnMouseUpAsButtonの両方でInstantiate処理が呼ばれていたので、片方が処理されたらもう片方が処理されないように書いた。</t>
-    <rPh sb="0" eb="2">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>カタホウ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原因</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>多分、手裏剣が生成されたときに投げられた手裏剣にぶつかって方向が変わっているため</t>
-    <rPh sb="0" eb="2">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>対策</t>
-    <rPh sb="0" eb="2">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>自分の投げた手裏剣にはぶつからないようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>シュリケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Instantiateしたコンマ数秒は自分手裏剣にぶつからないようにする。</t>
-    <rPh sb="16" eb="18">
-      <t>スウビョウ</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>ジブンシュリケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>どうすれば自分の投げた手裏剣のみ当たり判定しないようにできる？</t>
-    <rPh sb="5" eb="7">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>シュリケン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>投げた時boolを立てる</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>当たった</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>そいつ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レイヤーを変更して最初に衝突しないように作る。</t>
-  </si>
-  <si>
-    <t>対策：IsTriggerにチェックを入れて衝突処理をしないようにする。</t>
-    <rPh sb="0" eb="2">
-      <t>タイサク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショウトツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>見出し(論点と結論)</t>
     <rPh sb="0" eb="2">
       <t>ミダ</t>
@@ -1045,6 +680,85 @@
     <t>8時間耐久</t>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">タイキュウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期化</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ショキカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃したか？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキシタカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃できなくなる</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキデキナクナル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動できる</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウドウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>for文</t>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i = 0~10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>攻撃Aをする</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウゲキ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>while文</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i = 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i &lt; 10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前進する</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンシｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>i++</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュウリョウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1053,7 +767,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +810,14 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -1147,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1292,16 +1014,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1443,10 +1207,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{A4893942-A4FE-40AD-90A4-491040968939}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{7DAD25E6-10C7-CB45-A2CF-7A64EA0C0F6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1462,3163 +1296,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1344930</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3486150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9973</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43959EF0-155C-4284-9B9E-2757A5F66E1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10019030" y="2316480"/>
-          <a:ext cx="2141220" cy="1109793"/>
-          <a:chOff x="906999" y="-189412"/>
-          <a:chExt cx="2122583" cy="1222255"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="楕円 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E9EE4D-053C-4F45-846F-9118ED11472F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="906999" y="-189412"/>
-            <a:ext cx="2122583" cy="941077"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>自分手裏剣の配置を変更する開始</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2D1D3C-DC0D-42B4-8789-00A876EC7D76}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-            <a:stCxn id="31" idx="4"/>
-            <a:endCxn id="48" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="1960737" y="751665"/>
-            <a:ext cx="7554" cy="281178"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1150620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3665220</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="フローチャート: 判断 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F49879A-8BA4-4935-98D6-4028F096E261}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5303520" y="3431353"/>
-          <a:ext cx="2514600" cy="1133027"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分手裏剣をドラッグした？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2407920</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412683</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F253BBF-7164-438D-A356-C755F9C6404B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="914" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6560820" y="4564380"/>
-          <a:ext cx="4763" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>220051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3453765</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4896</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F264B6F-387C-410B-8086-9D7E340EB51C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="7527631"/>
-          <a:ext cx="2082165" cy="242045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タッチ座標取得</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412683</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412683</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3085</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D6CEC9-01BF-4904-AAB8-C19FACD13530}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="61" idx="2"/>
-          <a:endCxn id="75" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6565583" y="7769676"/>
-          <a:ext cx="0" cy="226789"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1367790</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>209437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3449955</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>222882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372FAD07-FB01-468C-A814-E9BE40712186}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5520690" y="9345817"/>
-          <a:ext cx="2082165" cy="242045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分手裏剣にタッチ座標設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>3085</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3472816</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>209437</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="74" name="グループ化 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626F6F3A-93CF-47EB-BC7D-3BDC4AADEBA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="10026650" y="7991385"/>
-          <a:ext cx="2120266" cy="1349352"/>
-          <a:chOff x="1074420" y="9915000"/>
-          <a:chExt cx="2120266" cy="1348737"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="フローチャート: 判断 74">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E1A5B3-7C1D-457F-92C3-99E2E30D71C8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1074420" y="9915000"/>
-            <a:ext cx="2120266" cy="1156978"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDecision">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>タッチ座標が</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>自エリア内？</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC06524-D1F9-4FD7-9A4C-2937399DAA7F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="75" idx="2"/>
-            <a:endCxn id="71" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="2130743" y="11071978"/>
-            <a:ext cx="3810" cy="191759"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1150620</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2408873</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>222883</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="コネクタ: カギ線 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FABA815-4533-4375-B16D-60CB5B807B29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="2"/>
-          <a:endCxn id="48" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="3137649" y="6163739"/>
-          <a:ext cx="5589995" cy="1258253"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -4089"/>
-            <a:gd name="adj2" fmla="val 118168"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="884" name="グループ化 883">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7A8DB4-50D3-402A-9F53-E1E22D675508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="808355" y="2308860"/>
-          <a:ext cx="2855595" cy="5694680"/>
-          <a:chOff x="739140" y="2316573"/>
-          <a:chExt cx="2834640" cy="5692047"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="19" name="グループ化 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12C99F1-4D9F-43AF-8B44-1770C9D44040}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1097280" y="2316573"/>
-            <a:ext cx="2141220" cy="2476407"/>
-            <a:chOff x="5920740" y="2575653"/>
-            <a:chExt cx="2141220" cy="2476407"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="2" name="グループ化 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B76309-3EA7-4F36-B510-A430C15869B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="5920740" y="2575653"/>
-              <a:ext cx="2141220" cy="1100993"/>
-              <a:chOff x="906999" y="-317794"/>
-              <a:chExt cx="2122583" cy="1123776"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="3" name="楕円 2">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FE439A-D798-44DD-96B8-DD36C1F875E3}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="906999" y="-317794"/>
-                <a:ext cx="2122583" cy="881279"/>
-              </a:xfrm>
-              <a:prstGeom prst="ellipse">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>自分手裏剣を投げる開始</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A51ED-7D0D-4EFA-902B-78B16F764079}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvCxnSpPr>
-                <a:stCxn id="3" idx="4"/>
-                <a:endCxn id="8" idx="0"/>
-              </xdr:cNvCxnSpPr>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipH="1">
-                <a:off x="1964469" y="563485"/>
-                <a:ext cx="3822" cy="242497"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="triangle"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="フローチャート: 判断 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5DDB97-345E-410D-96E1-A450AAB80EEE}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5933727" y="3676646"/>
-              <a:ext cx="2107536" cy="1156978"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>自分手裏剣をタッチした？</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A08B2AE-1D50-4250-B6FE-35C98A8FB57A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="8" idx="2"/>
-              <a:endCxn id="41" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="6984683" y="4829818"/>
-              <a:ext cx="3810" cy="222242"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="91" name="グループ化 90">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6543E7AC-EDBD-4B48-94C9-E2D3B99AF523}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1120140" y="4792980"/>
-            <a:ext cx="2082165" cy="480060"/>
-            <a:chOff x="1120140" y="4792980"/>
-            <a:chExt cx="2082165" cy="480060"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="41" name="正方形/長方形 40">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7F7D71-4A62-4284-82C8-38CF9666805C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1120140" y="4792980"/>
-              <a:ext cx="2082165" cy="241935"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>タッチ開始座標取得</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D0E6BD-A9B0-4812-ABC2-71CE08DB9C65}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="41" idx="2"/>
-              <a:endCxn id="93" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="2153603" y="5034915"/>
-              <a:ext cx="7620" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="92" name="グループ化 91">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E64E517-3C27-4443-9FCD-F81F259031D6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1112520" y="5273040"/>
-            <a:ext cx="2082165" cy="449580"/>
-            <a:chOff x="1120140" y="4792980"/>
-            <a:chExt cx="2082165" cy="449580"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="正方形/長方形 92">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFFFAE6-04EE-4261-8B86-DA92754DE7EC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1120140" y="4792980"/>
-              <a:ext cx="2082165" cy="241935"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>時間測定開始</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F86BA7C-CB0E-4917-8B38-230C5236D25F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="93" idx="2"/>
-              <a:endCxn id="820" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2161223" y="5034915"/>
-              <a:ext cx="2857" cy="207645"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="819" name="グループ化 818">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE51F26D-4E2B-4744-A428-42AE73DA5A0B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="739140" y="5722620"/>
-            <a:ext cx="2834640" cy="1356360"/>
-            <a:chOff x="891540" y="4808220"/>
-            <a:chExt cx="2522220" cy="1356360"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="820" name="フローチャート: 判断 819">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90078B08-03BC-4176-B1DC-20B6BC47DC43}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="891540" y="4808220"/>
-              <a:ext cx="2522220" cy="1156978"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>自分手裏剣</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>からタッチが離れた？</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="821" name="直線矢印コネクタ 820">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D370BD6-5A6B-497B-B915-75CC5CA4A146}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="820" idx="2"/>
-              <a:endCxn id="828" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2152650" y="5965198"/>
-              <a:ext cx="4238" cy="199382"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="827" name="グループ化 826">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B05B4F-6DC6-4528-834E-E47D67790FB4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1120140" y="7078980"/>
-            <a:ext cx="2082165" cy="472440"/>
-            <a:chOff x="1120140" y="4792980"/>
-            <a:chExt cx="2082165" cy="472440"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="828" name="正方形/長方形 827">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87A2312-BCC6-4E9E-B365-3488A773DA3E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1120140" y="4792980"/>
-              <a:ext cx="2082165" cy="241935"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>タッチ終了座標取得</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="829" name="直線矢印コネクタ 828">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B006EC-0A54-4DCC-B8D0-B2F69052183F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="828" idx="2"/>
-              <a:endCxn id="832" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2161223" y="5034915"/>
-              <a:ext cx="0" cy="230505"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="831" name="グループ化 830">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735D1F0E-4FE8-4291-89D2-FD8A43B2507B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="1120140" y="7551420"/>
-            <a:ext cx="2082165" cy="457200"/>
-            <a:chOff x="1120140" y="4792980"/>
-            <a:chExt cx="2082165" cy="457200"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="832" name="正方形/長方形 831">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48794537-A877-48C1-8C3E-7CFBBAA5C0D5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1120140" y="4792980"/>
-              <a:ext cx="2082165" cy="241935"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>時間測定</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>終了</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="833" name="直線矢印コネクタ 832">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56B7A978-D0D6-458A-A0B1-232B6A4C2B5A}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks/>
-              <a:stCxn id="832" idx="2"/>
-              <a:endCxn id="840" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="2160270" y="5034915"/>
-              <a:ext cx="953" cy="215265"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3070860</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="878" name="グループ化 877">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0555AFE-9CF3-4274-86F7-1370C5454CE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="734060" y="8003540"/>
-          <a:ext cx="3009900" cy="2735580"/>
-          <a:chOff x="647700" y="9090660"/>
-          <a:chExt cx="3009900" cy="2735580"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="839" name="グループ化 838">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CD2D54-A6C0-4FA3-844D-E11AA86D95C8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="647700" y="9090660"/>
-            <a:ext cx="3009900" cy="1371600"/>
-            <a:chOff x="891540" y="4808220"/>
-            <a:chExt cx="2678164" cy="1371600"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="840" name="フローチャート: 判断 839">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57550A42-236B-4683-96DD-37440311D18D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="891540" y="4808220"/>
-              <a:ext cx="2678164" cy="1156978"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US"/>
-                <a:t>タッチ座標の差が一定以上、一定以内？</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="841" name="直線矢印コネクタ 840">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2A08F2-16A4-4A54-9DE5-0A896C6CB6DF}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="840" idx="2"/>
-              <a:endCxn id="844" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2230622" y="5965198"/>
-              <a:ext cx="0" cy="214622"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="843" name="グループ化 842">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FB39DD7-B1D6-4800-8CCE-228E44A85315}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="647700" y="10462260"/>
-            <a:ext cx="3009900" cy="1363980"/>
-            <a:chOff x="891540" y="4808220"/>
-            <a:chExt cx="2678164" cy="1363980"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="844" name="フローチャート: 判断 843">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72769AB3-3F69-4681-95F3-FF137F60269D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="891540" y="4808220"/>
-              <a:ext cx="2678164" cy="1156978"/>
-            </a:xfrm>
-            <a:prstGeom prst="flowChartDecision">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US"/>
-                <a:t>測定時間が一定以上、一定以内？</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="845" name="直線矢印コネクタ 844">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DFC7F9E-C64E-4424-A6D5-AC7060A612C6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:cxnSpLocks/>
-              <a:stCxn id="844" idx="2"/>
-              <a:endCxn id="883" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="2227970" y="5965198"/>
-              <a:ext cx="2652" cy="207002"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2600077</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="883" name="フローチャート: 定義済み処理 882">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C7AC6E-60E0-437E-B88F-81018ABE43DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1196340" y="10744200"/>
-          <a:ext cx="2074297" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分手裏剣を投げる角度を求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2584837</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="886" name="フローチャート: 定義済み処理 885">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9680B480-B011-4D4F-B999-4E9CB5CEBD69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="12580620"/>
-          <a:ext cx="2074297" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>手裏剣を投げる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2592457</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="889" name="フローチャート: 定義済み処理 888">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29A03ECC-BAAC-4857-A5D6-947DF7996A5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1188720" y="11666220"/>
-          <a:ext cx="2074297" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分手裏剣のスピードを求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1555309</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1562929</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="890" name="直線矢印コネクタ 889">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9CDFEF-A15E-4A58-9770-5CF5954FB27B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="883" idx="2"/>
-          <a:endCxn id="889" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2225869" y="11430000"/>
-          <a:ext cx="7620" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1547689</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1555309</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="895" name="直線矢印コネクタ 894">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650FD719-E7E3-4A5B-A452-F83910EB6989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="889" idx="2"/>
-          <a:endCxn id="886" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2218249" y="12352020"/>
-          <a:ext cx="7620" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1367790</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3457575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="914" name="正方形/長方形 913">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFEDA7D5-DC42-4AC1-A354-5C59578610A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5520690" y="4810125"/>
-          <a:ext cx="2089785" cy="226695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>時間測定開始</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2407920</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412683</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="915" name="直線矢印コネクタ 914">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A08F11-3A42-4D2E-B381-5966C563A62E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="914" idx="2"/>
-          <a:endCxn id="916" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6560820" y="5038725"/>
-          <a:ext cx="4763" cy="222885"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1249680</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3566160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="916" name="フローチャート: 判断 915">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C406FAB8-AD1B-4887-80EB-8E9183414DC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5402580" y="5261610"/>
-          <a:ext cx="2316480" cy="2076450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>測定時間がフリック測定時間の一定より大きい？</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2407920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2412683</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>220051</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="917" name="直線矢印コネクタ 916">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A9A491-3538-405C-9FFF-BA1750EB8344}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="916" idx="2"/>
-          <a:endCxn id="61" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6560820" y="7338060"/>
-          <a:ext cx="4763" cy="189571"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="918" name="正方形/長方形 917">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CFDD46-4337-4A60-8A96-6BF8697471CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9060180" y="8679180"/>
-          <a:ext cx="3383280" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>わからないところ：どうやって同じイベント処理で時間の経過を表現するか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・距離が一定以上になってもタッチが離れなかった場合</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2116455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3257551</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>110491</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="923" name="吹き出し: 四角形 922">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E80253-A0EE-45CA-BE21-0A64ED7F4B5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2783205" y="4265296"/>
-          <a:ext cx="1141096" cy="407670"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -42412"/>
-            <a:gd name="adj2" fmla="val -83263"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>PointerEnter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3284221</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="924" name="吹き出し: 四角形 923">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5163BB-DA5D-442E-8AD8-DE60F5C074E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2809875" y="6572250"/>
-          <a:ext cx="1141096" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -42412"/>
-            <a:gd name="adj2" fmla="val -83263"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>PointerExit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2116455</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3257551</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="932" name="吹き出し: 四角形 931">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBA6A48-14D3-4492-8F91-2890E8980031}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2783205" y="4265296"/>
-          <a:ext cx="1141096" cy="403860"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -42412"/>
-            <a:gd name="adj2" fmla="val -83263"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>PointerEnter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>時</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3657600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4798696</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>203834</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="933" name="吹き出し: 四角形 932">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD3779F-4F09-4610-89CF-4830E4C731D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810500" y="5021579"/>
-          <a:ext cx="1141096" cy="1575435"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -103347"/>
-            <a:gd name="adj2" fmla="val -9460"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
-            <a:t>ここで一定より大きいなら手裏剣を投げず、配置移動処理とする。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1341120</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3329940</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="970" name="吹き出し: 四角形 969">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABDBE7B-CBFC-41B6-847A-CAE52EA7DCB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2011680" y="13456920"/>
-          <a:ext cx="1988820" cy="1089660"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -42412"/>
-            <a:gd name="adj2" fmla="val -83263"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どのように投げる？：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・フリック方向に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・フリックされたスピード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SetVecocity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1120140</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3108960</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="吹き出し: 四角形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A407B21E-2F05-4551-A1DB-A11C4D342438}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1790700" y="14897100"/>
-          <a:ext cx="1988820" cy="1089660"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -10994"/>
-            <a:gd name="adj2" fmla="val -80466"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>SetVecocity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>するときにスピードを遅くするには？：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テストしながら適当な値を引いたり割ったりしてみる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>417195</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4209575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>225978</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13726D5F-9C1F-4417-8DFC-D4ECEB00579A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4570095" y="7038975"/>
-          <a:ext cx="3792380" cy="5750478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3227070</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="吹き出し: 四角形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF9DF1B-5A9D-4AB1-A0A3-60F54163CFB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238750" y="5817869"/>
-          <a:ext cx="2141220" cy="748665"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -21060"/>
-            <a:gd name="adj2" fmla="val 92310"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>フリックしたときのタッチ時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406944</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101997</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C23B5A-1C63-4CBE-AE1E-7F2D1957208E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8736330" y="6829425"/>
-          <a:ext cx="5824764" cy="6979047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4410075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C076FAE-AAF8-4A5A-B136-2ED3D13062F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4562475" y="1190625"/>
-          <a:ext cx="4000500" cy="1457325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>問題：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>drag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のときに配置移動処理と手裏剣投げる処理のどちらが最後に呼ばれるかで挙動が変わってしまう。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7531,174 +4208,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>417195</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4209575</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>225978</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A556A4AA-10D2-4232-B9C3-A31936DAC2EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4570095" y="7040880"/>
-          <a:ext cx="3792380" cy="5750478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>112394</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3227070</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175259</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="吹き出し: 四角形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{251CE8B0-B3C9-43A4-A75D-890382C8CB54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238750" y="5819774"/>
-          <a:ext cx="2141220" cy="748665"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -21060"/>
-            <a:gd name="adj2" fmla="val 92310"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>フリックしたときのタッチ時間</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>406944</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>101997</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C991EA84-1712-4B9C-A71A-613BFA532E63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8740140" y="6831330"/>
-          <a:ext cx="5832384" cy="6979047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7930,353 +4439,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="17542857" cy="10285714"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1A5295-A41C-423A-8589-00FA30B9AAF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3528060"/>
-          <a:ext cx="17542857" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5809524" cy="4019048"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8768927B-596D-4420-8CF3-E28061747D89}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6145530" y="9294495"/>
-          <a:ext cx="5809524" cy="4019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>631415</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>122816</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2780E4-231A-4356-BE8F-5426CAF36C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2692400" y="24688800"/>
-          <a:ext cx="1304515" cy="1265816"/>
-          <a:chOff x="5327642" y="3945176"/>
-          <a:chExt cx="2317757" cy="2317757"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Picture 2" descr="手裏剣">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18053780-6EEE-4077-A767-2861144506AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:duotone>
-              <a:prstClr val="black"/>
-              <a:srgbClr val="D9C3A5">
-                <a:tint val="50000"/>
-                <a:satMod val="180000"/>
-              </a:srgbClr>
-            </a:duotone>
-            <a:alphaModFix/>
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
-                    <a14:imgEffect>
-                      <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5327642" y="3945176"/>
-            <a:ext cx="2317757" cy="2317757"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="楕円 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F5322A-CDFA-4BDC-A6C7-0BA659165993}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6235428" y="4834646"/>
-            <a:ext cx="525294" cy="525293"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="2400"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>868680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2991796</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114606</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3817620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="フローチャート: 判断 4">
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC58C02C-5291-4D71-A4B2-00A36D57D6D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E393EE-0ED7-EB4A-A174-3AEF8C8BC087}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8284,555 +4465,11 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1539240" y="1013460"/>
-          <a:ext cx="2123116" cy="1158546"/>
+          <a:off x="4574540" y="6291580"/>
+          <a:ext cx="3395980" cy="1371600"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
+        <a:prstGeom prst="rect">
           <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分手裏剣を投げた？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1930238</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1931670</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146DF24F-C150-4DA1-AE87-FC27CFC1069D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600798" y="2172006"/>
-          <a:ext cx="1432" cy="220674"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3169920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="フローチャート: 定義済み処理 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F951BB8-07E2-4EB3-81C0-506D38ED29E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1363980" y="2392680"/>
-          <a:ext cx="2476500" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>StartCoroutine</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1748790</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1756410</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2205ED-439B-4908-B61F-4827400A92ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="17" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7837170" y="914400"/>
-          <a:ext cx="7620" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3131820</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="フローチャート: 定義済み処理 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A95E6D-BAAA-46FD-A838-D72BEC2D51B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6469380" y="1158240"/>
-          <a:ext cx="2750820" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CoroutineInstantiateMyShuriken</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2987040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="フローチャート: 定義済み処理 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE78D7F-374F-4295-914C-84061109A33C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6598920" y="701040"/>
-          <a:ext cx="2476500" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>StartCoroutine</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2994660</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="フローチャート: 定義済み処理 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011FBA41-9690-4EA6-B488-A644545E7283}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9669780" y="693420"/>
-          <a:ext cx="2750820" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CoroutineInstantiateMyShuriken</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1619250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBBF891C-3B69-4CAF-82D2-D84ADBF9491B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="21" idx="2"/>
-          <a:endCxn id="25" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9277350" y="1127760"/>
-          <a:ext cx="0" cy="259080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2994660</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="フローチャート: 定義済み処理 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C2C679-51FC-4BE0-88BE-CDFCE5655557}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7901940" y="1386840"/>
-          <a:ext cx="2750820" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPredefinedProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Instantiate</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3589020</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5326380</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="吹き出し: 四角形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B358314-E119-490D-9185-5D7BF15B2567}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11247120" y="1325880"/>
-          <a:ext cx="1737360" cy="2849880"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -81871"/>
-            <a:gd name="adj2" fmla="val -43929"/>
-          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -8871,10 +4508,10 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>詳細：</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>考えるべきところ：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -8895,71 +4532,10 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>GameObject myShuriken1 = Instantiate(</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>937260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3162300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A1D9C7-2D8E-4139-B3B7-0E7E1C5ADA59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5379720" y="4076700"/>
-          <a:ext cx="2225040" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>どこで自分手裏剣のレイヤーを切り替えて手裏剣を初期に衝突されないようにするか？</a:t>
-          </a:r>
+            <a:t>・手裏剣配置変え処理を作ることによって、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8968,56 +4544,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>443881</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>94536</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51C35A3-06EB-4190-949C-21DAFCE886EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1466850"/>
-          <a:ext cx="15112381" cy="5714286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11556,28 +7083,28 @@
     </row>
     <row r="2" spans="1:10" ht="95">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>0</v>
@@ -11590,7 +7117,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -11605,20 +7132,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -11627,10 +7154,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -11645,13 +7172,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -11659,7 +7186,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19">
@@ -11667,21 +7194,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -11691,21 +7218,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -11715,21 +7242,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -11739,21 +7266,21 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -11763,21 +7290,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -11787,24 +7314,24 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="5"/>
     </row>
@@ -11813,14 +7340,14 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -11832,21 +7359,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -11856,14 +7383,14 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -11876,24 +7403,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -11902,14 +7429,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -11922,20 +7449,20 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -11943,7 +7470,7 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -11958,23 +7485,23 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19">
@@ -11982,22 +7509,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -12006,29 +7533,29 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="19">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="13"/>
@@ -12043,16 +7570,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -12062,7 +7589,7 @@
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -12077,23 +7604,23 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19">
@@ -12101,14 +7628,14 @@
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -12121,14 +7648,14 @@
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -12141,22 +7668,22 @@
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J29" s="5"/>
     </row>
@@ -12165,22 +7692,22 @@
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -12189,20 +7716,20 @@
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -12213,20 +7740,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -12237,20 +7764,20 @@
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -12261,20 +7788,20 @@
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -12285,20 +7812,20 @@
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -12309,20 +7836,20 @@
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -12333,20 +7860,20 @@
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -12357,20 +7884,20 @@
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -12383,72 +7910,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A1A709-85A0-4754-9465-263436309105}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB50DF-D6A3-41EE-85F5-AD79279589EE}">
+  <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.1640625" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="20" customWidth="1"/>
+    <col min="2" max="26" width="2.6640625" style="20"/>
+    <col min="27" max="27" width="2.6640625" style="23"/>
+    <col min="28" max="53" width="2.6640625" style="20"/>
+    <col min="54" max="54" width="2.6640625" style="23"/>
+    <col min="55" max="16384" width="2.6640625" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" customHeight="1">
-      <c r="A1" t="s">
-        <v>93</v>
+    <row r="1" spans="1:55" ht="15.5" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="BB1" s="20"/>
+    </row>
+    <row r="2" spans="1:55" ht="15.5" customHeight="1">
+      <c r="AA2" s="20"/>
+      <c r="BB2" s="20"/>
+    </row>
+    <row r="3" spans="1:55" ht="15.5" customHeight="1">
+      <c r="AA3" s="20"/>
+      <c r="BB3" s="20"/>
+    </row>
+    <row r="4" spans="1:55" ht="15.5" customHeight="1">
+      <c r="AA4" s="20"/>
+      <c r="BB4" s="20"/>
+    </row>
+    <row r="5" spans="1:55" s="21" customFormat="1" ht="15.5" customHeight="1"/>
+    <row r="6" spans="1:55" ht="15.5" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512C0735-6AC7-4B74-A685-C2749DA07A1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B7310F-5CE7-4096-8263-8F867A1EC697}">
-  <dimension ref="A1:A5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1157D-3E6F-4706-97B5-B53813B88A67}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.5" customHeight="1"/>
+    <row r="16" spans="1:4">
+      <c r="B16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -12458,89 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA7254-1014-4477-8C05-9BBEA00110A0}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2E6838-E6A5-4397-A8E7-145AD1D5E6B4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AD7398-F8CF-4840-93DB-E6855AE02897}">
   <dimension ref="B1:AM30"/>
   <sheetViews>
@@ -12554,200 +8108,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:39" ht="49" customHeight="1">
-      <c r="B1" s="34" t="s">
-        <v>102</v>
+      <c r="B1" s="33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B3" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E5" s="26"/>
-      <c r="S5" s="33"/>
+      <c r="E5" s="25"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E6" s="29"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
       <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
+        <v>72</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
       <c r="AA6" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F7" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="37"/>
+      <c r="F7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="35"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="36"/>
     </row>
     <row r="8" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="30"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="30"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="40"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="29"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="29"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="39"/>
     </row>
     <row r="9" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="31"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="31"/>
-      <c r="AE9" s="29"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="30"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="30"/>
+      <c r="AE9" s="28"/>
     </row>
     <row r="10" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="32"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="31"/>
       <c r="N10" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="31"/>
       <c r="AA10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE10" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="AE10" s="28"/>
     </row>
     <row r="11" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E11" s="29"/>
-      <c r="AF11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="37"/>
+      <c r="E11" s="28"/>
+      <c r="AF11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="36"/>
     </row>
     <row r="12" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E12" s="29"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="40"/>
+      <c r="E12" s="28"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="39"/>
     </row>
     <row r="13" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E14" s="29"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="18" spans="18:19" ht="13.75" customHeight="1">
       <c r="S18" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="18:19" ht="13.75" customHeight="1">
@@ -12755,47 +8309,47 @@
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="18:19" ht="13.75" customHeight="1">
       <c r="S21" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="18:19" ht="13.75" customHeight="1">
       <c r="S24" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="18:19" ht="13.75" customHeight="1">
       <c r="S25" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="18:19" ht="13.75" customHeight="1">
       <c r="S26" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="18:19" ht="13.75" customHeight="1">
       <c r="S27" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="18:19" ht="13.75" customHeight="1">
       <c r="S28" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="18:19" ht="13.75" customHeight="1">
       <c r="S29" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="18:19" ht="13.75" customHeight="1">
       <c r="S30" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -12811,11 +8365,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAF8577-CBFC-E64B-856B-4B034B465857}">
   <dimension ref="BI57:BI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="BI62" sqref="BI62"/>
     </sheetView>
   </sheetViews>
@@ -12823,244 +8377,18 @@
   <sheetData>
     <row r="57" spans="61:61" ht="13.75" customHeight="1">
       <c r="BI57" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="61:61" ht="13.75" customHeight="1">
       <c r="BI59" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C494438-0C89-4927-8847-596A4FAF5108}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E015A0-B04D-4D9B-82CE-40853EDDB953}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.5" customHeight="1"/>
-    <row r="16" spans="1:4">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="D31" s="19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE069DF-9E51-424F-BBDB-EED077E35B38}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="13.75" customHeight="1"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACB50DF-D6A3-41EE-85F5-AD79279589EE}">
-  <dimension ref="A1:BC6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="15.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" style="21" customWidth="1"/>
-    <col min="2" max="26" width="2.6640625" style="21"/>
-    <col min="27" max="27" width="2.6640625" style="24"/>
-    <col min="28" max="53" width="2.6640625" style="21"/>
-    <col min="54" max="54" width="2.6640625" style="24"/>
-    <col min="55" max="16384" width="2.6640625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55" ht="15.5" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="21"/>
-      <c r="BB1" s="21"/>
-    </row>
-    <row r="2" spans="1:55" ht="15.5" customHeight="1">
-      <c r="AA2" s="21"/>
-      <c r="BB2" s="21"/>
-    </row>
-    <row r="3" spans="1:55" ht="15.5" customHeight="1">
-      <c r="AA3" s="21"/>
-      <c r="BB3" s="21"/>
-    </row>
-    <row r="4" spans="1:55" ht="15.5" customHeight="1">
-      <c r="AA4" s="21"/>
-      <c r="BB4" s="21"/>
-    </row>
-    <row r="5" spans="1:55" s="22" customFormat="1" ht="15.5" customHeight="1"/>
-    <row r="6" spans="1:55" ht="15.5" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13080,227 +8408,398 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1157D-3E6F-4706-97B5-B53813B88A67}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E72EB39-B04E-1843-BFA9-D31F17DA4D7F}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:B3"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.5" customHeight="1"/>
-    <row r="16" spans="1:4">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="D31" s="19"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="13.75" customHeight="1"/>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C259A05-99C4-4314-843E-3297F8F977F3}">
-  <dimension ref="A101:C105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6803ECD8-51E2-5140-8A00-0AAF97045C1D}">
+  <dimension ref="B2:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="3.1640625" style="49"/>
+  </cols>
   <sheetData>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="B102" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="E5" s="54"/>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="F6" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="E8" s="54"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="E10" s="54"/>
+      <c r="F10" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="48"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="E11" s="54"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="57"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="E12" s="54"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="E13" s="54"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B103" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="B105" t="s">
-        <v>72</v>
-      </c>
+    <row r="14" spans="2:23">
+      <c r="E14" s="54"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="48"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="E15" s="54"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="5:23">
+      <c r="E17" s="54"/>
+      <c r="F17" s="49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23">
+      <c r="F18" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="65"/>
+    </row>
+    <row r="19" spans="5:23">
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="52"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="68"/>
+    </row>
+    <row r="20" spans="5:23">
+      <c r="E20" s="54"/>
+    </row>
+    <row r="21" spans="5:23">
+      <c r="E21" s="54"/>
+      <c r="F21" s="49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23">
+      <c r="F22" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="48"/>
+    </row>
+    <row r="23" spans="5:23">
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="5:23">
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="5:23">
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="5:23">
+      <c r="F26" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="65"/>
+    </row>
+    <row r="27" spans="5:23">
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="68"/>
+    </row>
+    <row r="28" spans="5:23">
+      <c r="E28" s="54"/>
+      <c r="O28" s="54"/>
+    </row>
+    <row r="29" spans="5:23">
+      <c r="E29" s="54"/>
+      <c r="O29" s="54"/>
+    </row>
+    <row r="30" spans="5:23">
+      <c r="E30" s="54"/>
+      <c r="P30" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="65"/>
+    </row>
+    <row r="31" spans="5:23">
+      <c r="E31" s="54"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="68"/>
+    </row>
+    <row r="32" spans="5:23">
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="F22:M23"/>
+    <mergeCell ref="F26:M27"/>
+    <mergeCell ref="P26:W27"/>
+    <mergeCell ref="P30:W31"/>
+    <mergeCell ref="B34:I35"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="F6:M7"/>
+    <mergeCell ref="F10:K13"/>
+    <mergeCell ref="P10:W11"/>
+    <mergeCell ref="P14:W15"/>
+    <mergeCell ref="F18:M19"/>
+    <mergeCell ref="P18:W19"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04EDED0-BF92-42B9-9C94-BA153E433410}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="57">
-      <c r="A4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/スロー数字手裏剣設計書.xlsx
+++ b/Documents/スロー数字手裏剣設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/SujiShuriken/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEBA17B-72EB-B844-B3BB-18914D37E62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07F447-E42C-C345-9FF3-97B3BD8EC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" activeTab="2" xr2:uid="{E0FF6593-6BC5-404C-8048-8B8F9B07B661}"/>
+    <workbookView xWindow="3120" yWindow="-17380" windowWidth="35840" windowHeight="17380" activeTab="2" xr2:uid="{E0FF6593-6BC5-404C-8048-8B8F9B07B661}"/>
   </bookViews>
   <sheets>
     <sheet name="設計のやり方" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>④UIを更新するための監督スクリプト</t>
     <phoneticPr fontId="2"/>
@@ -759,6 +759,13 @@
     <t>終了</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">シュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手裏剣を投げたら</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シュリケｎ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1171,6 +1178,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,9 +1250,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,36 +1258,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,6 +1275,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4210,16 +4217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>630555</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>478155</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>4059555</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4234,8 +4241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="630555" y="687705"/>
-          <a:ext cx="4000500" cy="1457325"/>
+          <a:off x="4211955" y="1081405"/>
+          <a:ext cx="4000500" cy="2753995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4269,73 +4276,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>drag</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のときに配置移動処理と手裏剣投げる処理のどちらが最後に呼ばれるかで挙動が変わってしまう。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>811530</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CA980F-6A59-45D1-8493-0733B110C71C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4964430" y="695325"/>
-          <a:ext cx="4370070" cy="2413635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>問題：</a:t>
+            <a:t>手裏剣を投げるときにドラッグしてしまう場合があり、</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4343,97 +4285,41 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>解像度によって画面をスケールできるようにしたら、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Drag</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>が反応しにくくなった。</a:t>
+            <a:t>その場合に手裏剣が移動してしまう。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>↓</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OnMouseOver</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を代わりに使って解決できそう。</a:t>
+            <a:t>対策：しゅりけんを投げる時は、ドラッグできないようにする</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>↓問題：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Exit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>のとき呼ばれたり呼ばれなかったりする。</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>→　手裏剣の上でフリック止めるときと手裏剣の外でフリック止めるときでイベントが起きない</a:t>
+            <a:t>どうやって？：</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OnMouseUpAsButton</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>OnMouseExit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を使えば解決できそうだが、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>OnIfShurikenThrown</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>回呼んでしまう場合はどうしよう？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4534,6 +4420,136 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・手裏剣配置変え処理を作ることによって、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122555</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7260F1-CE01-F546-87BB-209150715EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14295755" y="1056005"/>
+          <a:ext cx="4000500" cy="2753995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>問題：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hasDragged</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>がなぜドラッグされたときに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>になって</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手裏剣が投げられるときに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hasDragged == true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>だから条件文に入らないはずなのに入っているのか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ドラッグイベントの後にアップデートがあって、その後に手裏剣を投げる処理に入っているから。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>疑問：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OnMouseUp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>したときはドラッグしてないはず</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -7972,13 +7988,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1157D-3E6F-4706-97B5-B53813B88A67}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -8025,65 +8041,68 @@
       <c r="C16" s="18"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:6">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:6">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:6">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:6">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:6">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:6">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:6">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:6">
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:6">
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:6">
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:6">
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:6">
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:6">
       <c r="D30" s="19"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:6">
       <c r="D31" s="19"/>
     </row>
   </sheetData>
@@ -8113,26 +8132,26 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="2:39" ht="13.75" customHeight="1">
       <c r="E5" s="25"/>
@@ -8164,104 +8183,104 @@
       </c>
     </row>
     <row r="7" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
       <c r="M7" s="29"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
       <c r="Z7" s="29"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
       <c r="AC7" s="24"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="24"/>
-      <c r="AF7" s="34" t="s">
+      <c r="AF7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="36"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="45"/>
     </row>
     <row r="8" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="29"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
       <c r="Y8" s="29"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="39"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
+      <c r="AK8" s="47"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="48"/>
     </row>
     <row r="9" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="30"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
       <c r="Y9" s="30"/>
       <c r="AE9" s="28"/>
     </row>
     <row r="10" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="L10" s="27"/>
       <c r="M10" s="31"/>
       <c r="N10" t="s">
         <v>73</v>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
       <c r="Y10" s="27"/>
       <c r="Z10" s="31"/>
       <c r="AA10" t="s">
@@ -8271,27 +8290,27 @@
     </row>
     <row r="11" spans="2:39" ht="13.75" customHeight="1">
       <c r="E11" s="28"/>
-      <c r="AF11" s="34" t="s">
+      <c r="AF11" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="35"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="36"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="45"/>
     </row>
     <row r="12" spans="2:39" ht="13.75" customHeight="1">
       <c r="E12" s="28"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="39"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="47"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="47"/>
+      <c r="AJ12" s="47"/>
+      <c r="AK12" s="47"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="48"/>
     </row>
     <row r="13" spans="2:39" ht="13.75" customHeight="1">
       <c r="E13" s="28"/>
@@ -8432,372 +8451,372 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="3.1640625" style="49"/>
+    <col min="1" max="16384" width="3.1640625" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:23">
-      <c r="E4" s="53"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="2:23">
-      <c r="E5" s="54"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:23">
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
     </row>
     <row r="7" spans="2:23">
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="52"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="2:23">
-      <c r="E8" s="54"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:23">
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="49" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:23">
-      <c r="E10" s="54"/>
-      <c r="F10" s="46" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="46" t="s">
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="48"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
     </row>
     <row r="11" spans="2:23">
-      <c r="E11" s="54"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="57"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="39"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="2:23">
-      <c r="E12" s="54"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:23">
-      <c r="E13" s="54"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="49" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="E14" s="54"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="46" t="s">
+      <c r="E14" s="36"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="48"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="57"/>
     </row>
     <row r="15" spans="2:23">
-      <c r="E15" s="54"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="52"/>
+      <c r="E15" s="36"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="2:23">
-      <c r="E16" s="54"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="5:23">
-      <c r="E17" s="54"/>
-      <c r="F17" s="49" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="5:23">
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="63" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="65"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="63"/>
     </row>
     <row r="19" spans="5:23">
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="52"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="68"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="66"/>
     </row>
     <row r="20" spans="5:23">
-      <c r="E20" s="54"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" spans="5:23">
-      <c r="E21" s="54"/>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="5:23">
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="48"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
     </row>
     <row r="23" spans="5:23">
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="60"/>
     </row>
     <row r="24" spans="5:23">
-      <c r="E24" s="54"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="5:23">
-      <c r="E25" s="54"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="5:23">
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="63" t="s">
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="65"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="63"/>
     </row>
     <row r="27" spans="5:23">
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="68"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="60"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
     </row>
     <row r="28" spans="5:23">
-      <c r="E28" s="54"/>
-      <c r="O28" s="54"/>
+      <c r="E28" s="36"/>
+      <c r="O28" s="36"/>
     </row>
     <row r="29" spans="5:23">
-      <c r="E29" s="54"/>
-      <c r="O29" s="54"/>
+      <c r="E29" s="36"/>
+      <c r="O29" s="36"/>
     </row>
     <row r="30" spans="5:23">
-      <c r="E30" s="54"/>
-      <c r="P30" s="63" t="s">
+      <c r="E30" s="36"/>
+      <c r="P30" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="65"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="63"/>
     </row>
     <row r="31" spans="5:23">
-      <c r="E31" s="54"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="68"/>
+      <c r="E31" s="36"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="66"/>
     </row>
     <row r="32" spans="5:23">
-      <c r="E32" s="54"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="E33" s="54"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F18:M19"/>
+    <mergeCell ref="P18:W19"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="F6:M7"/>
+    <mergeCell ref="F10:K13"/>
+    <mergeCell ref="P10:W11"/>
+    <mergeCell ref="P14:W15"/>
     <mergeCell ref="F22:M23"/>
     <mergeCell ref="F26:M27"/>
     <mergeCell ref="P26:W27"/>
     <mergeCell ref="P30:W31"/>
     <mergeCell ref="B34:I35"/>
-    <mergeCell ref="B2:I3"/>
-    <mergeCell ref="F6:M7"/>
-    <mergeCell ref="F10:K13"/>
-    <mergeCell ref="P10:W11"/>
-    <mergeCell ref="P14:W15"/>
-    <mergeCell ref="F18:M19"/>
-    <mergeCell ref="P18:W19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
